--- a/biology/Zoologie/Burramyidae/Burramyidae.xlsx
+++ b/biology/Zoologie/Burramyidae/Burramyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Burramyidae, forment une famille de Marsupiaux diprotodontes, appelés opossums pygmées, soit Pygmy possums en anglais. La famille comprend cinq espèces d'opossums nains océaniens, réparties en deux genres dont l'un est monospécifique.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (26 mai 2010)[1] :
-genre Burramys Broom, 1896 - Opossum nain des montagnes[2] ou Souris-opossum des montagnes[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 mai 2010) :
+genre Burramys Broom, 1896 - Opossum nain des montagnes ou Souris-opossum des montagnes
 genre Cercartetus Gloger, 1841 - phalangers loirs</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 mai 2010) :
 genre Burramys
 Burramys parvus
 genre Cercartetus
